--- a/lib/uploads/2017_1_info.xlsx
+++ b/lib/uploads/2017_1_info.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>Religion</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Scholar Number</t>
   </si>
   <si>
-    <t>Deb</t>
-  </si>
-  <si>
     <t>Hindu</t>
   </si>
   <si>
@@ -90,49 +87,58 @@
     <t>A</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>O+</t>
   </si>
   <si>
     <t>Patel</t>
   </si>
   <si>
-    <t>Gupta</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>O-</t>
-  </si>
-  <si>
     <t>Vivekanand</t>
   </si>
   <si>
-    <t>Sharma</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
     <t>Tagore</t>
+  </si>
+  <si>
+    <t>Shreyansh Deb</t>
+  </si>
+  <si>
+    <t>Prateek Gupta</t>
+  </si>
+  <si>
+    <t>Shubham Sharma</t>
+  </si>
+  <si>
+    <t>10, Downing Street, London</t>
+  </si>
+  <si>
+    <t>221B, Baker Street, London</t>
+  </si>
+  <si>
+    <t>E-50, Ideal Hills, Gwarighat</t>
+  </si>
+  <si>
+    <t>AB+</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>Vijay Deb</t>
+  </si>
+  <si>
+    <t>Praveen Gupta</t>
+  </si>
+  <si>
+    <t>Ashok Kumar Sharma</t>
+  </si>
+  <si>
+    <t>Sanjukta Deb</t>
+  </si>
+  <si>
+    <t>Surekha Gupta</t>
+  </si>
+  <si>
+    <t>Vina Sharma</t>
   </si>
 </sst>
 </file>
@@ -318,14 +324,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -756,7 +762,7 @@
   <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,65 +779,66 @@
     <col min="11" max="11" width="32.28515625" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
     <col min="13" max="13" width="8.5703125" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" customWidth="1"/>
     <col min="17" max="17" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
     </row>
     <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
     </row>
     <row r="3" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:16" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -892,37 +899,37 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="11">
+        <v>38</v>
+      </c>
+      <c r="J7" s="10">
         <v>34967</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L7" s="1">
         <v>9713161575</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1">
         <v>6.2</v>
@@ -931,7 +938,7 @@
         <v>75</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -942,46 +949,46 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="12">
-        <v>29221</v>
+        <v>39</v>
+      </c>
+      <c r="J8" s="11">
+        <v>32874</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L8" s="1">
         <v>9713161576</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N8" s="2">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="O8" s="2">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -992,37 +999,37 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="12">
+        <v>40</v>
+      </c>
+      <c r="J9" s="11">
         <v>37653</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L9" s="1">
         <v>9713161577</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N9" s="2">
         <v>5.0999999999999996</v>
@@ -1031,7 +1038,7 @@
         <v>80</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
